--- a/data/trans_bre/P2C_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Provincia-trans_bre.xlsx
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,41</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>10,6</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,1</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,7</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,37%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>46,11%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,04; 16,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,44; 19,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,86; 11,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,0; 6,11</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,44; 56,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,91; 47,81</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,45; 32,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,55; 149,2</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,78</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,57</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,36</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,9</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>82,61%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,77; 13,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,8; 12,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,72; 12,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,39; 13,37</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,9; 65,71</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,69; 30,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,05; 53,2</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,6; 158,9</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,66</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,3</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,89</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,86%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,71%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,22%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,85; 8,47</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,78; 14,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,17; 10,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,55; 5,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,37; 27,78</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,11; 34,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,34; 43,25</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,51; 60,7</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,3</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,01</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,59</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,37</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,03%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,06%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>31,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,21%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,02; 16,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,25; 13,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,85; 17,34</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,03; 3,41</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,23; 64,05</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,35; 29,4</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,4; 65,45</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,11; 25,17</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,91</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,37</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,38</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,69%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,23%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,82%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,49; 15,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,16; 18,01</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,3; 13,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,36; 3,17</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,9; 82,38</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,14; 42,09</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,56; 35,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-57,33; 37,25</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,4</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,99</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-16,2%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>33,86%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,09; 1,74</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,25; 15,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,35; 11,7</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,63; 11,46</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,07; 5,96</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,36; 37,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,33; 47,76</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,75; 78,24</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1220,42 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,32</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,99</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,29</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,76%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>8,99%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>37,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>456,61%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,86; 16,13</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,66; 9,84</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,79; 15,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,99; 61,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,87; 61,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,42; 24,2</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,61; 64,51</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,93; 1713,18</t>
         </is>
       </c>
     </row>
@@ -1320,42 +1320,42 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,05</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,49</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,1%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,25%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,53%</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,7; 6,7</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,72; 14,51</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,33; 14,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,5; 24,86</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,67; 24,86</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,51; 36,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,96; 42,6</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,58; 394,81</t>
         </is>
       </c>
     </row>
@@ -1420,42 +1420,42 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,81</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,45</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,43</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,43%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,21%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>79,05%</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,04; 7,85</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,29; 9,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,07; 9,62</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,0; 23,68</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,01; 28,25</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,28; 20,8</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,87; 31,99</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>31,21; 220,25</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R2-Provincia-trans_bre.xlsx
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,04; 16,98</t>
+          <t>-0,66; 16,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,44; 19,66</t>
+          <t>2,41; 19,91</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,86; 11,01</t>
+          <t>-5,55; 11,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 6,11</t>
+          <t>-1,0; 6,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 56,98</t>
+          <t>-1,76; 53,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,91; 47,81</t>
+          <t>4,86; 49,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,45; 32,92</t>
+          <t>-13,31; 33,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 149,2</t>
+          <t>-13,63; 150,5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>1,77; 13,39</t>
+          <t>2,24; 13,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 12,34</t>
+          <t>-1,11; 11,52</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 12,82</t>
+          <t>1,83; 13,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 13,37</t>
+          <t>3,85; 13,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>6,9; 65,71</t>
+          <t>8,84; 65,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-1,69; 30,31</t>
+          <t>-2,26; 28,22</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,05; 53,2</t>
+          <t>6,53; 54,95</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,6; 158,9</t>
+          <t>28,12; 159,64</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,85; 8,47</t>
+          <t>-6,58; 8,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 14,45</t>
+          <t>-1,13; 14,34</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,17; 10,1</t>
+          <t>-3,2; 10,82</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 5,57</t>
+          <t>-3,43; 5,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 27,78</t>
+          <t>-17,18; 28,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-4,11; 34,49</t>
+          <t>-2,48; 34,93</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-11,34; 43,25</t>
+          <t>-10,37; 47,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,51; 60,7</t>
+          <t>-23,56; 61,28</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,02; 16,17</t>
+          <t>1,8; 15,53</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,25; 13,39</t>
+          <t>-1,34; 13,39</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>2,85; 17,34</t>
+          <t>2,6; 17,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-11,03; 3,41</t>
+          <t>-10,66; 3,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>6,23; 64,05</t>
+          <t>5,37; 59,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 29,4</t>
+          <t>-3,04; 28,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>9,4; 65,45</t>
+          <t>7,78; 66,0</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,11; 25,17</t>
+          <t>-53,47; 28,81</t>
         </is>
       </c>
     </row>
@@ -1068,49 +1068,49 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 15,11</t>
+          <t>-1,62; 15,89</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-2,16; 18,01</t>
+          <t>-1,38; 18,83</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-5,3; 13,29</t>
+          <t>-4,83; 14,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,36; 3,17</t>
+          <t>-8,02; 3,34</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 82,38</t>
+          <t>-6,27; 77,59</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 42,09</t>
+          <t>-2,73; 44,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-10,56; 35,23</t>
+          <t>-10,54; 38,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-57,33; 37,25</t>
+          <t>-58,63; 36,57</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1168,49 +1168,49 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-14,09; 1,74</t>
+          <t>-13,36; 2,75</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-2,25; 15,05</t>
+          <t>-2,08; 15,27</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 11,7</t>
+          <t>-4,51; 11,95</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-0,63; 11,46</t>
+          <t>0,18; 12,07</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-36,07; 5,96</t>
+          <t>-34,36; 8,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 37,93</t>
+          <t>-4,21; 38,56</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-13,33; 47,76</t>
+          <t>-13,74; 48,38</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 78,24</t>
+          <t>0,64; 80,02</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1268,42 +1268,42 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,86; 16,13</t>
+          <t>5,04; 15,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 9,84</t>
+          <t>-1,52; 9,62</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,79; 15,28</t>
+          <t>5,11; 15,29</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,99; 61,51</t>
+          <t>1,11; 55,2</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>14,87; 61,87</t>
+          <t>15,07; 58,19</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 24,2</t>
+          <t>-3,29; 23,17</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>16,61; 64,51</t>
+          <t>16,52; 64,17</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>13,93; 1713,18</t>
+          <t>18,07; 1846,02</t>
         </is>
       </c>
     </row>
@@ -1368,42 +1368,42 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,7; 6,7</t>
+          <t>-2,5; 6,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>3,72; 14,51</t>
+          <t>3,44; 14,07</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>4,33; 14,34</t>
+          <t>4,5; 14,34</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>7,5; 24,86</t>
+          <t>7,41; 24,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-8,67; 24,86</t>
+          <t>-8,4; 25,8</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>8,51; 36,92</t>
+          <t>7,62; 36,33</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>10,96; 42,6</t>
+          <t>11,98; 43,66</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>32,58; 394,81</t>
+          <t>31,86; 337,82</t>
         </is>
       </c>
     </row>
@@ -1468,42 +1468,42 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>3,04; 7,85</t>
+          <t>3,03; 7,64</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,29; 9,13</t>
+          <t>4,63; 9,63</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,07; 9,62</t>
+          <t>5,06; 9,87</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,0; 23,68</t>
+          <t>3,97; 24,36</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>10,01; 28,25</t>
+          <t>9,83; 27,14</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>9,28; 20,8</t>
+          <t>10,2; 22,37</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>15,87; 31,99</t>
+          <t>15,69; 33,01</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>31,21; 220,25</t>
+          <t>30,74; 208,36</t>
         </is>
       </c>
     </row>
